--- a/igs/test-fsh/CurrentBuild/StructureDefinition-derived-Appointment.xlsx
+++ b/igs/test-fsh/CurrentBuild/StructureDefinition-derived-Appointment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.4</t>
+    <t>0.0.5</t>
   </si>
   <si>
     <t>Name</t>
